--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2721407.765758837</v>
+        <v>-2724022.044375289</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>74.10393120075581</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>74.1039312007582</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52.86845664851268</v>
+        <v>52.86845664851259</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>115.8619247783174</v>
+        <v>115.8619247783173</v>
       </c>
       <c r="T2" t="n">
         <v>205.2000830738755</v>
@@ -753,10 +753,10 @@
         <v>135.1561775373476</v>
       </c>
       <c r="H3" t="n">
-        <v>91.1103483761872</v>
+        <v>91.11034837618719</v>
       </c>
       <c r="I3" t="n">
-        <v>14.0869132767431</v>
+        <v>14.08691327674306</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>94.83943180792922</v>
+        <v>94.83943180792917</v>
       </c>
       <c r="S4" t="n">
-        <v>192.0586035981867</v>
+        <v>192.0586035981866</v>
       </c>
       <c r="T4" t="n">
         <v>220.1102960603998</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>56.36815306948851</v>
       </c>
       <c r="Y4" t="n">
-        <v>156.9244405089569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>213.3749514242877</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>96.44868378079367</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>134.4415385849327</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>60.1051408642924</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>160.5958651236772</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>193.7568625666142</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,10 +1291,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>48.99533837730337</v>
       </c>
       <c r="Y10" t="n">
-        <v>26.6692588683104</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>83.06560892428209</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>99.97427419833916</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272876</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892442</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.06560892428202</v>
+        <v>20.88994825141544</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892437</v>
+        <v>286.1844743892442</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740349</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892442</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>116.4636264596499</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833829</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016443</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>108.2950343703264</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>99.97427419833714</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012207</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.405450327288</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892442</v>
+        <v>286.1844743892437</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
         <v>142.9621736065881</v>
@@ -2719,7 +2719,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808293</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V28" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="29">
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
@@ -3199,13 +3199,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="35">
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541838</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652575</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3913,7 +3913,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
         <v>56.98118882652582</v>
@@ -4189,7 +4189,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>556.5871098736779</v>
+        <v>556.5871098736802</v>
       </c>
       <c r="C2" t="n">
-        <v>187.6245929332663</v>
+        <v>187.6245929332686</v>
       </c>
       <c r="D2" t="n">
-        <v>112.7721371749273</v>
+        <v>187.6245929332686</v>
       </c>
       <c r="E2" t="n">
-        <v>112.7721371749273</v>
+        <v>112.7721371749272</v>
       </c>
       <c r="F2" t="n">
-        <v>112.7721371749273</v>
+        <v>112.7721371749272</v>
       </c>
       <c r="G2" t="n">
-        <v>112.7721371749273</v>
+        <v>112.7721371749272</v>
       </c>
       <c r="H2" t="n">
-        <v>112.7721371749273</v>
+        <v>112.7721371749272</v>
       </c>
       <c r="I2" t="n">
-        <v>59.36965571178312</v>
+        <v>59.36965571178317</v>
       </c>
       <c r="J2" t="n">
-        <v>223.6389510734994</v>
+        <v>223.6389510734998</v>
       </c>
       <c r="K2" t="n">
-        <v>520.5745606447442</v>
+        <v>520.5745606447447</v>
       </c>
       <c r="L2" t="n">
-        <v>925.8512030185022</v>
+        <v>925.8512030185034</v>
       </c>
       <c r="M2" t="n">
-        <v>1408.468993552357</v>
+        <v>1408.468993552358</v>
       </c>
       <c r="N2" t="n">
-        <v>1903.509852877248</v>
+        <v>1903.509852877249</v>
       </c>
       <c r="O2" t="n">
-        <v>2357.627637384224</v>
+        <v>2357.627637384227</v>
       </c>
       <c r="P2" t="n">
-        <v>2710.705659215709</v>
+        <v>2710.705659215711</v>
       </c>
       <c r="Q2" t="n">
-        <v>2927.679802719471</v>
+        <v>2927.679802719473</v>
       </c>
       <c r="R2" t="n">
-        <v>2968.482785589156</v>
+        <v>2968.482785589159</v>
       </c>
       <c r="S2" t="n">
-        <v>2851.450538338331</v>
+        <v>2851.450538338333</v>
       </c>
       <c r="T2" t="n">
-        <v>2644.177727152598</v>
+        <v>2644.1777271526</v>
       </c>
       <c r="U2" t="n">
-        <v>2390.623582788376</v>
+        <v>2390.623582788378</v>
       </c>
       <c r="V2" t="n">
-        <v>2059.560695444805</v>
+        <v>2059.560695444808</v>
       </c>
       <c r="W2" t="n">
-        <v>1706.792040174691</v>
+        <v>1706.792040174694</v>
       </c>
       <c r="X2" t="n">
-        <v>1333.326281913611</v>
+        <v>1333.326281913614</v>
       </c>
       <c r="Y2" t="n">
-        <v>943.1869499377997</v>
+        <v>943.186949937802</v>
       </c>
     </row>
     <row r="3">
@@ -4404,31 +4404,31 @@
         <v>73.59886104182667</v>
       </c>
       <c r="I3" t="n">
-        <v>59.36965571178312</v>
+        <v>59.36965571178317</v>
       </c>
       <c r="J3" t="n">
-        <v>138.3894757148951</v>
+        <v>138.3894757148952</v>
       </c>
       <c r="K3" t="n">
-        <v>351.6017589168899</v>
+        <v>351.6017589168903</v>
       </c>
       <c r="L3" t="n">
-        <v>684.6145268671323</v>
+        <v>684.6145268671328</v>
       </c>
       <c r="M3" t="n">
-        <v>1092.581588039813</v>
+        <v>1092.581588039814</v>
       </c>
       <c r="N3" t="n">
-        <v>1525.754968293605</v>
+        <v>1525.754968293606</v>
       </c>
       <c r="O3" t="n">
-        <v>1899.804188738134</v>
+        <v>1899.804188738136</v>
       </c>
       <c r="P3" t="n">
-        <v>2180.67859866338</v>
+        <v>2180.678598663382</v>
       </c>
       <c r="Q3" t="n">
-        <v>2526.493021853938</v>
+        <v>2522.971720424101</v>
       </c>
       <c r="R3" t="n">
         <v>2558.264324026496</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.36965571178312</v>
+        <v>207.2827492941763</v>
       </c>
       <c r="C4" t="n">
-        <v>59.36965571178312</v>
+        <v>207.2827492941763</v>
       </c>
       <c r="D4" t="n">
-        <v>59.36965571178312</v>
+        <v>207.2827492941763</v>
       </c>
       <c r="E4" t="n">
-        <v>59.36965571178312</v>
+        <v>59.36965571178317</v>
       </c>
       <c r="F4" t="n">
-        <v>59.36965571178312</v>
+        <v>59.36965571178317</v>
       </c>
       <c r="G4" t="n">
-        <v>59.36965571178312</v>
+        <v>59.36965571178317</v>
       </c>
       <c r="H4" t="n">
-        <v>59.36965571178312</v>
+        <v>59.36965571178317</v>
       </c>
       <c r="I4" t="n">
-        <v>59.36965571178312</v>
+        <v>59.36965571178317</v>
       </c>
       <c r="J4" t="n">
-        <v>95.29667538945978</v>
+        <v>95.29667538945992</v>
       </c>
       <c r="K4" t="n">
         <v>284.172641777821</v>
@@ -4495,43 +4495,43 @@
         <v>581.3952856386279</v>
       </c>
       <c r="M4" t="n">
-        <v>905.1640129945956</v>
+        <v>905.1640129945959</v>
       </c>
       <c r="N4" t="n">
-        <v>1226.668860094579</v>
+        <v>1226.66886009458</v>
       </c>
       <c r="O4" t="n">
         <v>1507.614327944344</v>
       </c>
       <c r="P4" t="n">
-        <v>1724.49102829028</v>
+        <v>1724.491028290281</v>
       </c>
       <c r="Q4" t="n">
-        <v>1791.210133852896</v>
+        <v>1791.210133852897</v>
       </c>
       <c r="R4" t="n">
-        <v>1695.412727986301</v>
+        <v>1695.412727986302</v>
       </c>
       <c r="S4" t="n">
-        <v>1501.414138493183</v>
+        <v>1501.414138493184</v>
       </c>
       <c r="T4" t="n">
-        <v>1279.080506108941</v>
+        <v>1279.080506108942</v>
       </c>
       <c r="U4" t="n">
-        <v>989.9704007202812</v>
+        <v>989.9704007202822</v>
       </c>
       <c r="V4" t="n">
-        <v>735.2859125143943</v>
+        <v>735.2859125143954</v>
       </c>
       <c r="W4" t="n">
-        <v>445.8687424774337</v>
+        <v>445.8687424774348</v>
       </c>
       <c r="X4" t="n">
-        <v>217.8791915794164</v>
+        <v>388.931214124416</v>
       </c>
       <c r="Y4" t="n">
-        <v>59.36965571178312</v>
+        <v>388.931214124416</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1636.624422581789</v>
+        <v>1458.811090838973</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1089.848573898562</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1089.848573898562</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>704.0603213003174</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>293.0744165107098</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>282.0423703961104</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3117.892240226373</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2786.829352882803</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W5" t="n">
-        <v>2786.829352882803</v>
+        <v>2609.016021139987</v>
       </c>
       <c r="X5" t="n">
-        <v>2413.363594621723</v>
+        <v>2235.550262878907</v>
       </c>
       <c r="Y5" t="n">
-        <v>2023.224262645911</v>
+        <v>1845.410930903095</v>
       </c>
     </row>
     <row r="6">
@@ -4635,19 +4635,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>443.0505103572859</v>
+        <v>370.0144869816389</v>
       </c>
       <c r="C7" t="n">
-        <v>274.114327429379</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D7" t="n">
-        <v>274.114327429379</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
         <v>315.6219318279954</v>
@@ -4759,16 +4759,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368016</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>845.4915543310558</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>845.4915543310558</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y7" t="n">
-        <v>624.6989751875257</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1572.164517693149</v>
+        <v>1734.047335491683</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1365.084818551271</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1365.084818551271</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>979.2965659530269</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>568.3106611634194</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,13 +4799,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3019.601150543726</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>3019.601150543726</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V8" t="n">
-        <v>2688.538263200155</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W8" t="n">
-        <v>2335.769607930041</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="X8" t="n">
-        <v>1962.303849668961</v>
+        <v>2510.786507531616</v>
       </c>
       <c r="Y8" t="n">
-        <v>1572.164517693149</v>
+        <v>2120.647175555805</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4899,34 +4899,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548191</v>
+        <v>360.6423967967188</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269122</v>
+        <v>360.6423967967188</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>360.6423967967188</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>970.0546934046018</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W10" t="n">
-        <v>970.0546934046018</v>
+        <v>812.5736815556436</v>
       </c>
       <c r="X10" t="n">
-        <v>742.0651425065845</v>
+        <v>763.0834407704887</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.1264971850588</v>
+        <v>542.2908616269585</v>
       </c>
     </row>
     <row r="11">
@@ -5036,25 +5036,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121647</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998293</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998293</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998296</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998296</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,16 +5221,16 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
         <v>1433.70136564882</v>
@@ -5239,10 +5239,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="14">
@@ -5267,16 +5267,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075813</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400716</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121647</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5452,13 +5452,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487567</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703113</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5555,7 +5555,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>363.7369613277357</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>363.7369613277357</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>216.8470138298254</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5686,7 +5686,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
@@ -5701,7 +5701,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
         <v>1688.385853854706</v>
@@ -5710,13 +5710,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,10 +5786,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400713</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121644</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998287</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998287</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998287</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5908,7 +5908,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
         <v>435.7419440038341</v>
@@ -5932,7 +5932,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487567</v>
@@ -5947,10 +5947,10 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y22" t="n">
         <v>695.5020655703111</v>
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.853600740071</v>
+        <v>513.8536007400702</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121641</v>
+        <v>344.9174178121633</v>
       </c>
       <c r="D25" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998276</v>
       </c>
       <c r="E25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,7 +6163,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
@@ -6172,10 +6172,10 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U25" t="n">
         <v>1688.385853854706</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138405</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703107</v>
+        <v>695.5020655703099</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6206,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C28" t="n">
         <v>782.5512955656814</v>
       </c>
       <c r="D28" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E28" t="n">
         <v>533.5814564942652</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G28" t="n">
         <v>268.5553036345476</v>
@@ -6382,28 +6382,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380733</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N28" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
         <v>2596.781734931273</v>
@@ -6418,7 +6418,7 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
         <v>1483.79828551875</v>
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.192580311172</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6616,16 +6616,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,10 +6643,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
@@ -6680,7 +6680,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6689,28 +6689,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6892,13 +6892,13 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6926,28 +6926,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7020,7 +7020,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
         <v>680.0291294438176</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
         <v>656.9646031150021</v>
@@ -7081,22 +7081,22 @@
         <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
@@ -7117,16 +7117,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7363,19 +7363,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7400,13 +7400,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7497,7 +7497,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
         <v>782.5512955656818</v>
@@ -7555,10 +7555,10 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,7 +7570,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7728,10 +7728,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>184.7035232280589</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>206.5204176046984</v>
       </c>
       <c r="R3" t="n">
-        <v>41.96479968017251</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22550,10 +22550,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>280.5791104199271</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>307.8264388715036</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22711,7 +22711,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -22768,10 +22768,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>169.3415023195487</v>
       </c>
       <c r="Y4" t="n">
-        <v>61.66021284313788</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65.54986409393027</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788473</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.54986409393034</v>
+        <v>127.7255247667969</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23890,19 +23890,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>43.72409101823391</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>63.36835372228737</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393055</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>40.32043864788594</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823209</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229313</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1228620.061871473</v>
+        <v>1228620.061871474</v>
       </c>
       <c r="C3" t="n">
-        <v>95186.49343973119</v>
+        <v>95186.49343973036</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.765727120073279e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>213599.1454818041</v>
+        <v>213599.1454818043</v>
       </c>
       <c r="K3" t="n">
-        <v>22978.01038359976</v>
+        <v>22978.01038359955</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.438655772290076e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551171</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363179</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17443.36326662285</v>
+        <v>17443.3632666228</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316948</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316936</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26439,16 +26439,16 @@
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>20377.77944491161</v>
+        <v>20377.77944491159</v>
       </c>
       <c r="K4" t="n">
         <v>20377.7794449116</v>
       </c>
       <c r="L4" t="n">
-        <v>20377.77944491161</v>
+        <v>20377.7794449116</v>
       </c>
       <c r="M4" t="n">
-        <v>20377.7794449116</v>
+        <v>20377.77944491159</v>
       </c>
       <c r="N4" t="n">
         <v>20377.7794449116</v>
@@ -26457,7 +26457,7 @@
         <v>20377.77944491159</v>
       </c>
       <c r="P4" t="n">
-        <v>20377.77944491161</v>
+        <v>20377.7794449116</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100917.4173209745</v>
+        <v>100917.4173209746</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1346980.84245907</v>
+        <v>-1347410.40132566</v>
       </c>
       <c r="C6" t="n">
-        <v>-294694.3889542939</v>
+        <v>-294694.3889542931</v>
       </c>
       <c r="D6" t="n">
-        <v>-199507.8955145627</v>
+        <v>-199507.8955145628</v>
       </c>
       <c r="E6" t="n">
-        <v>-438921.9118130804</v>
+        <v>-438956.6497385158</v>
       </c>
       <c r="F6" t="n">
-        <v>-113509.4500057252</v>
+        <v>-113544.1879311609</v>
       </c>
       <c r="G6" t="n">
-        <v>-113509.4500057252</v>
+        <v>-113544.1879311609</v>
       </c>
       <c r="H6" t="n">
-        <v>-113509.4500057252</v>
+        <v>-113544.1879311609</v>
       </c>
       <c r="I6" t="n">
-        <v>-113509.4500057252</v>
+        <v>-113544.1879311609</v>
       </c>
       <c r="J6" t="n">
-        <v>-337141.0407806311</v>
+        <v>-337141.0407806312</v>
       </c>
       <c r="K6" t="n">
-        <v>-146519.9056824268</v>
+        <v>-146519.9056824266</v>
       </c>
       <c r="L6" t="n">
-        <v>-123541.895298827</v>
+        <v>-123541.8952988271</v>
       </c>
       <c r="M6" t="n">
-        <v>-208596.9232343388</v>
+        <v>-208596.9232343387</v>
       </c>
       <c r="N6" t="n">
         <v>-123541.895298827</v>
@@ -26707,16 +26707,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203973</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1016.921054129328</v>
+        <v>1016.921054129329</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972891</v>
+        <v>742.1206963972896</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1016.921054129328</v>
+        <v>1016.921054129329</v>
       </c>
       <c r="C3" t="n">
-        <v>72.85564646396995</v>
+        <v>72.85564646396938</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972891</v>
+        <v>742.1206963972896</v>
       </c>
       <c r="C4" t="n">
-        <v>89.28075900500369</v>
+        <v>89.28075900500278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972891</v>
+        <v>742.1206963972896</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500369</v>
+        <v>89.28075900500278</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972891</v>
+        <v>742.1206963972896</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500369</v>
+        <v>89.28075900500278</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>81.23281296303279</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -27670,13 +27670,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>154.5464881781083</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>32.80528251369509</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>86.32882178227678</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>250.3258605297763</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>10.16110757300595</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,10 +28011,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>176.7143170117338</v>
       </c>
       <c r="Y10" t="n">
-        <v>191.9153944837844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.088124840720915</v>
+        <v>4.088124840720917</v>
       </c>
       <c r="H2" t="n">
-        <v>41.86750852503308</v>
+        <v>41.8675085250331</v>
       </c>
       <c r="I2" t="n">
-        <v>157.6074329218932</v>
+        <v>157.6074329218933</v>
       </c>
       <c r="J2" t="n">
-        <v>346.9744857001371</v>
+        <v>346.9744857001373</v>
       </c>
       <c r="K2" t="n">
-        <v>520.0248102078535</v>
+        <v>520.0248102078538</v>
       </c>
       <c r="L2" t="n">
-        <v>645.1367608020663</v>
+        <v>645.1367608020666</v>
       </c>
       <c r="M2" t="n">
-        <v>717.8389509382368</v>
+        <v>717.8389509382373</v>
       </c>
       <c r="N2" t="n">
-        <v>729.4543356419352</v>
+        <v>729.4543356419357</v>
       </c>
       <c r="O2" t="n">
-        <v>688.8030442570166</v>
+        <v>688.8030442570169</v>
       </c>
       <c r="P2" t="n">
-        <v>587.877462251719</v>
+        <v>587.8774622517193</v>
       </c>
       <c r="Q2" t="n">
-        <v>441.471491393401</v>
+        <v>441.4714913934013</v>
       </c>
       <c r="R2" t="n">
-        <v>256.8006720259354</v>
+        <v>256.8006720259356</v>
       </c>
       <c r="S2" t="n">
-        <v>93.15814480792794</v>
+        <v>93.158144807928</v>
       </c>
       <c r="T2" t="n">
-        <v>17.89576649025581</v>
+        <v>17.89576649025582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3270499872576731</v>
+        <v>0.3270499872576733</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.187339625863084</v>
+        <v>2.187339625863085</v>
       </c>
       <c r="H3" t="n">
-        <v>21.12509586030926</v>
+        <v>21.12509586030927</v>
       </c>
       <c r="I3" t="n">
-        <v>75.30971957467197</v>
+        <v>75.30971957467202</v>
       </c>
       <c r="J3" t="n">
-        <v>206.6556266698101</v>
+        <v>206.6556266698102</v>
       </c>
       <c r="K3" t="n">
-        <v>353.2073816026366</v>
+        <v>353.2073816026369</v>
       </c>
       <c r="L3" t="n">
-        <v>474.9309130629472</v>
+        <v>474.9309130629475</v>
       </c>
       <c r="M3" t="n">
-        <v>554.2219745004838</v>
+        <v>554.2219745004842</v>
       </c>
       <c r="N3" t="n">
-        <v>568.890581026557</v>
+        <v>568.8905810265574</v>
       </c>
       <c r="O3" t="n">
-        <v>520.4237398429592</v>
+        <v>520.4237398429594</v>
       </c>
       <c r="P3" t="n">
-        <v>417.6859325913463</v>
+        <v>417.6859325913465</v>
       </c>
       <c r="Q3" t="n">
-        <v>279.2119845224526</v>
+        <v>279.2119845224528</v>
       </c>
       <c r="R3" t="n">
-        <v>135.8069287005168</v>
+        <v>135.8069287005169</v>
       </c>
       <c r="S3" t="n">
-        <v>40.62887419092173</v>
+        <v>40.62887419092175</v>
       </c>
       <c r="T3" t="n">
-        <v>8.816513667404267</v>
+        <v>8.816513667404273</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1439039227541503</v>
+        <v>0.1439039227541504</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,46 +31197,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.833792064823379</v>
+        <v>1.83379206482338</v>
       </c>
       <c r="H4" t="n">
-        <v>16.30407853997514</v>
+        <v>16.30407853997515</v>
       </c>
       <c r="I4" t="n">
-        <v>55.1471286403249</v>
+        <v>55.14712864032493</v>
       </c>
       <c r="J4" t="n">
         <v>129.6490989830129</v>
       </c>
       <c r="K4" t="n">
-        <v>213.0532962585707</v>
+        <v>213.0532962585708</v>
       </c>
       <c r="L4" t="n">
-        <v>272.6348675283776</v>
+        <v>272.6348675283778</v>
       </c>
       <c r="M4" t="n">
-        <v>287.4552415795411</v>
+        <v>287.4552415795412</v>
       </c>
       <c r="N4" t="n">
-        <v>280.620198428836</v>
+        <v>280.6201984288361</v>
       </c>
       <c r="O4" t="n">
-        <v>259.1981729443082</v>
+        <v>259.1981729443083</v>
       </c>
       <c r="P4" t="n">
-        <v>221.7888148219111</v>
+        <v>221.7888148219112</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.5550791735286</v>
+        <v>153.5550791735287</v>
       </c>
       <c r="R4" t="n">
-        <v>82.45395956924027</v>
+        <v>82.45395956924031</v>
       </c>
       <c r="S4" t="n">
-        <v>31.9579944387856</v>
+        <v>31.95799443878562</v>
       </c>
       <c r="T4" t="n">
-        <v>7.835293367881707</v>
+        <v>7.835293367881712</v>
       </c>
       <c r="U4" t="n">
         <v>0.100025021717639</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32704,7 +32704,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33740,10 +33740,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34217,10 +34217,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34448,13 +34448,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>229.6463482471742</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>165.9285811734508</v>
+        <v>165.928581173451</v>
       </c>
       <c r="K2" t="n">
-        <v>299.934959162873</v>
+        <v>299.9349591628732</v>
       </c>
       <c r="L2" t="n">
-        <v>409.3703458320791</v>
+        <v>409.3703458320794</v>
       </c>
       <c r="M2" t="n">
-        <v>487.4927177109641</v>
+        <v>487.4927177109646</v>
       </c>
       <c r="N2" t="n">
-        <v>500.0412720453443</v>
+        <v>500.0412720453448</v>
       </c>
       <c r="O2" t="n">
-        <v>458.7048328353299</v>
+        <v>458.7048328353302</v>
       </c>
       <c r="P2" t="n">
-        <v>356.6444664964494</v>
+        <v>356.6444664964498</v>
       </c>
       <c r="Q2" t="n">
-        <v>219.1658015189515</v>
+        <v>219.1658015189518</v>
       </c>
       <c r="R2" t="n">
-        <v>41.21513421180327</v>
+        <v>41.21513421180344</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>79.81800000314337</v>
+        <v>79.81800000314348</v>
       </c>
       <c r="K3" t="n">
-        <v>215.3659426282777</v>
+        <v>215.3659426282779</v>
       </c>
       <c r="L3" t="n">
-        <v>336.3765332830731</v>
+        <v>336.3765332830733</v>
       </c>
       <c r="M3" t="n">
-        <v>412.0879405784655</v>
+        <v>412.0879405784659</v>
       </c>
       <c r="N3" t="n">
-        <v>437.5488689432237</v>
+        <v>437.5488689432241</v>
       </c>
       <c r="O3" t="n">
-        <v>377.8274953985148</v>
+        <v>377.827495398515</v>
       </c>
       <c r="P3" t="n">
-        <v>283.711525177016</v>
+        <v>283.7115251770163</v>
       </c>
       <c r="Q3" t="n">
-        <v>349.3074981722802</v>
+        <v>345.7506280411296</v>
       </c>
       <c r="R3" t="n">
-        <v>32.09222441672534</v>
+        <v>35.64909454787373</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>36.28991886634009</v>
+        <v>36.28991886634017</v>
       </c>
       <c r="K4" t="n">
-        <v>190.7838044326878</v>
+        <v>190.783804432688</v>
       </c>
       <c r="L4" t="n">
-        <v>300.2248927886938</v>
+        <v>300.224892788694</v>
       </c>
       <c r="M4" t="n">
-        <v>327.0391185413816</v>
+        <v>327.0391185413818</v>
       </c>
       <c r="N4" t="n">
-        <v>324.7523708080646</v>
+        <v>324.7523708080647</v>
       </c>
       <c r="O4" t="n">
-        <v>283.7833008583479</v>
+        <v>283.783300858348</v>
       </c>
       <c r="P4" t="n">
-        <v>219.0673740868046</v>
+        <v>219.0673740868047</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.3930359218342</v>
+        <v>67.39303592183428</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899076</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060454</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36531,7 +36531,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36753,25 +36753,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -37239,7 +37239,7 @@
         <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37388,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37865,10 +37865,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>91.80490927281522</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
